--- a/biology/Botanique/Achnanthaceae/Achnanthaceae.xlsx
+++ b/biology/Botanique/Achnanthaceae/Achnanthaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Achnanthaceae sont une famille d'algues de l'embranchement des Bacillariophyta de la classe des Bacillariophyceae et de l’ordre des Achnanthales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Achnanthes, dérivé du grec αχνη / achni, « duvet ; paillettes », et ανθη / anthi, fleur, en référence à la morphologie de cette diatomée « composée de plusieurs petites bandes parallèles qui paraissent être autant d'articles composant la plante »[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Achnanthes, dérivé du grec αχνη / achni, « duvet ; paillettes », et ανθη / anthi, fleur, en référence à la morphologie de cette diatomée « composée de plusieurs petites bandes parallèles qui paraissent être autant d'articles composant la plante ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Achnanthes décrit par Bory St-Vincent est une « algue microscopique qui se présente sous la forme d'une petite lame rectangulaire pédicellée latéralement et obliquement de manière à former une sorte de petit étendard. La lame n'est point continue mais composée de plusieurs petites bandes parallèles qui paraissent être autant d'articles composant la plante »[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Achnanthes décrit par Bory St-Vincent est une « algue microscopique qui se présente sous la forme d'une petite lame rectangulaire pédicellée latéralement et obliquement de manière à former une sorte de petit étendard. La lame n'est point continue mais composée de plusieurs petites bandes parallèles qui paraissent être autant d'articles composant la plante ».
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Achnanthes sont marines ou fixées aux plantes marécageuses dans les eaux douces[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Achnanthes sont marines ou fixées aux plantes marécageuses dans les eaux douces.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (24 avril 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (24 avril 2022) :
 Achnantella Gaillon, 1833
 Achnanthes (en) Bory, 1822   genre type
 Australoneis J.M.Guerrero &amp; C.Riaux-Gobin, 2021
@@ -638,9 +658,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Achnanthaceae Kützing, 1844[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Achnanthaceae Kützing, 1844.
 </t>
         </is>
       </c>
